--- a/UIanyAut/src/main/java/anyAut/Automation/UIanyAut/data/TestAut.xlsx
+++ b/UIanyAut/src/main/java/anyAut/Automation/UIanyAut/data/TestAut.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
   <si>
     <t>UseName</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Testcase  ID</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -802,7 +805,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +844,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -867,7 +870,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
@@ -893,7 +896,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>

--- a/UIanyAut/src/main/java/anyAut/Automation/UIanyAut/data/TestAut.xlsx
+++ b/UIanyAut/src/main/java/anyAut/Automation/UIanyAut/data/TestAut.xlsx
@@ -4,22 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="4290" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="4290" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TC001" sheetId="1" r:id="rId1"/>
     <sheet name="TC002" sheetId="2" r:id="rId2"/>
     <sheet name="TC003" sheetId="3" r:id="rId3"/>
     <sheet name="TC004" sheetId="4" r:id="rId4"/>
-    <sheet name="TC005" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O12"/>
+  <oleSize ref="A1:K12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>UseName</t>
   </si>
@@ -120,25 +119,19 @@
     <t>password</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Enter invalid username</t>
   </si>
   <si>
     <t>tap@gmail.com</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Testcase  ID</t>
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>Username</t>
   </si>
 </sst>
 </file>
@@ -670,255 +663,100 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UIanyAut/src/main/java/anyAut/Automation/UIanyAut/data/TestAut.xlsx
+++ b/UIanyAut/src/main/java/anyAut/Automation/UIanyAut/data/TestAut.xlsx
@@ -11,14 +11,14 @@
     <sheet name="TC002" sheetId="2" r:id="rId2"/>
     <sheet name="TC003" sheetId="3" r:id="rId3"/>
     <sheet name="TC004" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>UseName</t>
   </si>
@@ -128,10 +128,7 @@
     <t>Testcase  ID</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Username</t>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -663,101 +660,89 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>